--- a/data/urls.xlsx
+++ b/data/urls.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86772E6-A618-4F01-A3E2-90BE0B437783}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F405EA38-0B40-4744-8EEC-C5C91F94AE77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,13 @@
     <t>url</t>
   </si>
   <si>
-    <t>https://baselinestage.kci.com</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>https://baseline2016.kci.com/</t>
+    <t>https://baseline2016.kci.com</t>
+  </si>
+  <si>
+    <t>https://baselinestage.kci.com</t>
   </si>
 </sst>
 </file>
@@ -363,12 +363,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -376,12 +376,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -391,8 +391,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F86B4D8E-2C16-426A-93D3-05C8773F4D37}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{99C3EEAA-0DAC-42DC-88D6-05C19C31BD33}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{B0366944-B735-4AF6-8533-AF80D28C73E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
